--- a/Import Data/88x875.xlsx
+++ b/Import Data/88x875.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBF24C7-25D3-4C1A-956E-3D938AAD296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21630" yWindow="2385" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="46">
   <si>
     <t>8.8x8.75</t>
   </si>
@@ -155,24 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>0.76-NaN</t>
-  </si>
-  <si>
-    <t>0.81-NaN</t>
-  </si>
-  <si>
-    <t>1.10-NaN</t>
-  </si>
-  <si>
-    <t>1.39-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -256,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I787"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="I774" sqref="I774"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -546,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -562,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -585,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -608,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -616,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -633,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -647,7 +698,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -673,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -693,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -719,7 +770,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.7</v>
       </c>
@@ -745,7 +796,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.5</v>
       </c>
@@ -771,7 +822,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.2000000000000002</v>
       </c>
@@ -797,7 +848,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -823,7 +874,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.7</v>
       </c>
@@ -849,7 +900,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.5</v>
       </c>
@@ -875,7 +926,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.2</v>
       </c>
@@ -901,7 +952,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -927,7 +978,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.7</v>
       </c>
@@ -953,7 +1004,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.5</v>
       </c>
@@ -979,7 +1030,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.1999999999999993</v>
       </c>
@@ -1005,7 +1056,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1031,7 +1082,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9.6999999999999993</v>
       </c>
@@ -1057,7 +1108,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10.5</v>
       </c>
@@ -1083,7 +1134,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11.2</v>
       </c>
@@ -1109,7 +1160,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1135,7 +1186,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12.7</v>
       </c>
@@ -1161,7 +1212,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13.5</v>
       </c>
@@ -1187,7 +1238,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14.2</v>
       </c>
@@ -1213,7 +1264,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14.9</v>
       </c>
@@ -1239,7 +1290,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15.7</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16.399999999999999</v>
       </c>
@@ -1291,7 +1342,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17.2</v>
       </c>
@@ -1317,7 +1368,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17.899999999999999</v>
       </c>
@@ -1343,7 +1394,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18.7</v>
       </c>
@@ -1369,7 +1420,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19.399999999999999</v>
       </c>
@@ -1395,7 +1446,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20.2</v>
       </c>
@@ -1421,7 +1472,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20.9</v>
       </c>
@@ -1447,7 +1498,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21.7</v>
       </c>
@@ -1473,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1538,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1533,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1559,7 +1610,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.1000000000000001</v>
       </c>
@@ -1585,7 +1636,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.2000000000000002</v>
       </c>
@@ -1611,7 +1662,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.3</v>
       </c>
@@ -1637,7 +1688,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.5</v>
       </c>
@@ -1663,7 +1714,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.6</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.7</v>
       </c>
@@ -1715,7 +1766,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.8</v>
       </c>
@@ -1741,7 +1792,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8.9</v>
       </c>
@@ -1767,7 +1818,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
@@ -1793,7 +1844,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11.1</v>
       </c>
@@ -1819,7 +1870,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12.3</v>
       </c>
@@ -1845,7 +1896,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13.4</v>
       </c>
@@ -1871,7 +1922,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14.5</v>
       </c>
@@ -1897,7 +1948,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.6</v>
       </c>
@@ -1923,7 +1974,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16.7</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17.8</v>
       </c>
@@ -1975,7 +2026,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18.899999999999999</v>
       </c>
@@ -2001,7 +2052,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20.100000000000001</v>
       </c>
@@ -2027,7 +2078,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21.2</v>
       </c>
@@ -2053,7 +2104,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>22.3</v>
       </c>
@@ -2079,7 +2130,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23.4</v>
       </c>
@@ -2105,7 +2156,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>24.5</v>
       </c>
@@ -2131,7 +2182,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>25.6</v>
       </c>
@@ -2157,7 +2208,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>26.7</v>
       </c>
@@ -2183,7 +2234,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>27.9</v>
       </c>
@@ -2209,7 +2260,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>29</v>
       </c>
@@ -2235,7 +2286,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>30.1</v>
       </c>
@@ -2261,7 +2312,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>31.2</v>
       </c>
@@ -2287,7 +2338,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>32.299999999999997</v>
       </c>
@@ -2313,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2378,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2399,7 +2450,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.5</v>
       </c>
@@ -2425,7 +2476,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2451,7 +2502,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4.4000000000000004</v>
       </c>
@@ -2477,7 +2528,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5.9</v>
       </c>
@@ -2503,7 +2554,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7.4</v>
       </c>
@@ -2529,7 +2580,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8.9</v>
       </c>
@@ -2555,7 +2606,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10.3</v>
       </c>
@@ -2581,7 +2632,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>11.8</v>
       </c>
@@ -2607,7 +2658,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>13.3</v>
       </c>
@@ -2633,7 +2684,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14.8</v>
       </c>
@@ -2659,7 +2710,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16.3</v>
       </c>
@@ -2685,7 +2736,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>17.7</v>
       </c>
@@ -2711,7 +2762,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19.2</v>
       </c>
@@ -2737,7 +2788,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20.7</v>
       </c>
@@ -2763,7 +2814,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.2</v>
       </c>
@@ -2789,7 +2840,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23.6</v>
       </c>
@@ -2815,7 +2866,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25.1</v>
       </c>
@@ -2841,7 +2892,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26.6</v>
       </c>
@@ -2867,7 +2918,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28.1</v>
       </c>
@@ -2893,7 +2944,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>29.6</v>
       </c>
@@ -2919,7 +2970,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>31</v>
       </c>
@@ -2945,7 +2996,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>32.5</v>
       </c>
@@ -2971,7 +3022,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>34</v>
       </c>
@@ -2997,7 +3048,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>35.5</v>
       </c>
@@ -3023,7 +3074,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>36.9</v>
       </c>
@@ -3049,7 +3100,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>38.4</v>
       </c>
@@ -3075,7 +3126,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>39.9</v>
       </c>
@@ -3101,7 +3152,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>41.4</v>
       </c>
@@ -3127,7 +3178,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>42.9</v>
       </c>
@@ -3153,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3167,7 +3218,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3193,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3213,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3239,7 +3290,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.8</v>
       </c>
@@ -3265,7 +3316,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3.7</v>
       </c>
@@ -3291,7 +3342,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5.5</v>
       </c>
@@ -3317,7 +3368,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7.4</v>
       </c>
@@ -3343,7 +3394,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9.1999999999999993</v>
       </c>
@@ -3369,7 +3420,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11</v>
       </c>
@@ -3395,7 +3446,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>12.9</v>
       </c>
@@ -3421,7 +3472,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14.7</v>
       </c>
@@ -3447,7 +3498,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16.600000000000001</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18.399999999999999</v>
       </c>
@@ -3499,7 +3550,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20.2</v>
       </c>
@@ -3525,7 +3576,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22.1</v>
       </c>
@@ -3551,7 +3602,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>23.9</v>
       </c>
@@ -3577,7 +3628,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>25.8</v>
       </c>
@@ -3603,7 +3654,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>27.6</v>
       </c>
@@ -3629,7 +3680,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>29.4</v>
       </c>
@@ -3655,7 +3706,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>31.3</v>
       </c>
@@ -3681,7 +3732,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>33.1</v>
       </c>
@@ -3707,7 +3758,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>35</v>
       </c>
@@ -3733,7 +3784,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>36.799999999999997</v>
       </c>
@@ -3759,7 +3810,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>38.6</v>
       </c>
@@ -3785,7 +3836,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>40.5</v>
       </c>
@@ -3811,7 +3862,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>42.3</v>
       </c>
@@ -3837,7 +3888,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>44.2</v>
       </c>
@@ -3863,7 +3914,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>46</v>
       </c>
@@ -3889,7 +3940,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>47.8</v>
       </c>
@@ -3915,7 +3966,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>49.7</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>51.5</v>
       </c>
@@ -3967,7 +4018,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>53.4</v>
       </c>
@@ -3993,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4007,7 +4058,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4033,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4053,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4079,7 +4130,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.2000000000000002</v>
       </c>
@@ -4105,7 +4156,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4.4000000000000004</v>
       </c>
@@ -4131,7 +4182,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6.6</v>
       </c>
@@ -4157,7 +4208,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8.8000000000000007</v>
       </c>
@@ -4183,7 +4234,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>11</v>
       </c>
@@ -4209,7 +4260,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>13.3</v>
       </c>
@@ -4235,7 +4286,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>15.5</v>
       </c>
@@ -4261,7 +4312,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17.7</v>
       </c>
@@ -4287,7 +4338,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>19.899999999999999</v>
       </c>
@@ -4313,7 +4364,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>22.1</v>
       </c>
@@ -4339,7 +4390,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24.3</v>
       </c>
@@ -4365,7 +4416,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>26.5</v>
       </c>
@@ -4391,7 +4442,7 @@
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28.7</v>
       </c>
@@ -4417,7 +4468,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>30.9</v>
       </c>
@@ -4443,7 +4494,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>33.1</v>
       </c>
@@ -4469,7 +4520,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>35.299999999999997</v>
       </c>
@@ -4495,7 +4546,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>37.6</v>
       </c>
@@ -4521,7 +4572,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>39.799999999999997</v>
       </c>
@@ -4547,7 +4598,7 @@
         <v>0.54300000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>42</v>
       </c>
@@ -4573,7 +4624,7 @@
         <v>0.51100000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>44.2</v>
       </c>
@@ -4599,7 +4650,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>46.4</v>
       </c>
@@ -4625,7 +4676,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>48.6</v>
       </c>
@@ -4651,7 +4702,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>50.8</v>
       </c>
@@ -4677,7 +4728,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>53</v>
       </c>
@@ -4703,7 +4754,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>55.2</v>
       </c>
@@ -4729,7 +4780,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>57.4</v>
       </c>
@@ -4755,7 +4806,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>59.6</v>
       </c>
@@ -4781,7 +4832,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>61.9</v>
       </c>
@@ -4807,7 +4858,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>64.099999999999994</v>
       </c>
@@ -4833,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4847,7 +4898,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4873,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4893,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4919,7 +4970,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.6</v>
       </c>
@@ -4945,7 +4996,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5.2</v>
       </c>
@@ -4971,7 +5022,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7.7</v>
       </c>
@@ -4997,7 +5048,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10.3</v>
       </c>
@@ -5023,7 +5074,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>12.9</v>
       </c>
@@ -5049,7 +5100,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>15.5</v>
       </c>
@@ -5075,7 +5126,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>18.100000000000001</v>
       </c>
@@ -5101,7 +5152,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20.7</v>
       </c>
@@ -5127,7 +5178,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>23.2</v>
       </c>
@@ -5153,7 +5204,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>25.8</v>
       </c>
@@ -5179,7 +5230,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28.4</v>
       </c>
@@ -5205,7 +5256,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>31</v>
       </c>
@@ -5231,7 +5282,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>33.6</v>
       </c>
@@ -5257,7 +5308,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>36.200000000000003</v>
       </c>
@@ -5283,7 +5334,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>38.700000000000003</v>
       </c>
@@ -5309,7 +5360,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>41.3</v>
       </c>
@@ -5335,7 +5386,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>43.9</v>
       </c>
@@ -5361,7 +5412,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>46.5</v>
       </c>
@@ -5387,7 +5438,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>49.1</v>
       </c>
@@ -5413,7 +5464,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>51.7</v>
       </c>
@@ -5439,7 +5490,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>54.2</v>
       </c>
@@ -5465,7 +5516,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>56.8</v>
       </c>
@@ -5491,7 +5542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>59.4</v>
       </c>
@@ -5517,7 +5568,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>62</v>
       </c>
@@ -5543,7 +5594,7 @@
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>64.599999999999994</v>
       </c>
@@ -5569,7 +5620,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>67.2</v>
       </c>
@@ -5595,7 +5646,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>69.7</v>
       </c>
@@ -5621,7 +5672,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>72.3</v>
       </c>
@@ -5647,7 +5698,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>74.900000000000006</v>
       </c>
@@ -5673,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5687,7 +5738,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5713,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5733,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5759,7 +5810,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -5785,7 +5836,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.9</v>
       </c>
@@ -5811,7 +5862,7 @@
         <v>1.109</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8.9</v>
       </c>
@@ -5837,7 +5888,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11.8</v>
       </c>
@@ -5863,7 +5914,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -5889,7 +5940,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>17.7</v>
       </c>
@@ -5915,7 +5966,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20.7</v>
       </c>
@@ -5941,7 +5992,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>23.6</v>
       </c>
@@ -5967,7 +6018,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>26.6</v>
       </c>
@@ -5993,7 +6044,7 @@
         <v>1.109</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>29.5</v>
       </c>
@@ -6019,7 +6070,7 @@
         <v>1.107</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>32.5</v>
       </c>
@@ -6045,7 +6096,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>35.4</v>
       </c>
@@ -6071,7 +6122,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>38.4</v>
       </c>
@@ -6097,7 +6148,7 @@
         <v>1.093</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>41.4</v>
       </c>
@@ -6123,7 +6174,7 @@
         <v>1.0840000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>44.3</v>
       </c>
@@ -6149,7 +6200,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>47.3</v>
       </c>
@@ -6175,7 +6226,7 @@
         <v>1.044</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>50.2</v>
       </c>
@@ -6201,7 +6252,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>53.2</v>
       </c>
@@ -6227,7 +6278,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>56.1</v>
       </c>
@@ -6253,7 +6304,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>59.1</v>
       </c>
@@ -6279,7 +6330,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>62</v>
       </c>
@@ -6305,7 +6356,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>65</v>
       </c>
@@ -6331,7 +6382,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>67.900000000000006</v>
       </c>
@@ -6357,7 +6408,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>70.900000000000006</v>
       </c>
@@ -6383,7 +6434,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>73.8</v>
       </c>
@@ -6409,7 +6460,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>76.8</v>
       </c>
@@ -6435,7 +6486,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>79.8</v>
       </c>
@@ -6461,7 +6512,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>82.7</v>
       </c>
@@ -6487,7 +6538,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>85.7</v>
       </c>
@@ -6513,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6527,7 +6578,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6553,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6573,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6599,7 +6650,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3.3</v>
       </c>
@@ -6625,7 +6676,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6.6</v>
       </c>
@@ -6651,7 +6702,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>10</v>
       </c>
@@ -6677,7 +6728,7 @@
         <v>1.4059999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>13.3</v>
       </c>
@@ -6703,7 +6754,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16.600000000000001</v>
       </c>
@@ -6729,7 +6780,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>19.899999999999999</v>
       </c>
@@ -6755,7 +6806,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>23.3</v>
       </c>
@@ -6781,7 +6832,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>26.6</v>
       </c>
@@ -6807,7 +6858,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>29.9</v>
       </c>
@@ -6833,7 +6884,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>33.200000000000003</v>
       </c>
@@ -6859,7 +6910,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>36.6</v>
       </c>
@@ -6885,7 +6936,7 @@
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>39.9</v>
       </c>
@@ -6911,7 +6962,7 @@
         <v>1.393</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>43.2</v>
       </c>
@@ -6937,7 +6988,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>46.5</v>
       </c>
@@ -6963,7 +7014,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>49.8</v>
       </c>
@@ -6989,7 +7040,7 @@
         <v>1.3540000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>53.2</v>
       </c>
@@ -7015,7 +7066,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>56.5</v>
       </c>
@@ -7041,7 +7092,7 @@
         <v>1.284</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>59.8</v>
       </c>
@@ -7067,7 +7118,7 @@
         <v>1.2290000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>63.1</v>
       </c>
@@ -7093,7 +7144,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>66.5</v>
       </c>
@@ -7119,7 +7170,7 @@
         <v>1.0580000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>69.8</v>
       </c>
@@ -7145,7 +7196,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>73.099999999999994</v>
       </c>
@@ -7171,7 +7222,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>76.400000000000006</v>
       </c>
@@ -7197,7 +7248,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>79.7</v>
       </c>
@@ -7223,7 +7274,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>83.1</v>
       </c>
@@ -7249,7 +7300,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>86.4</v>
       </c>
@@ -7275,7 +7326,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>89.7</v>
       </c>
@@ -7301,7 +7352,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>93</v>
       </c>
@@ -7327,7 +7378,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>96.4</v>
       </c>
@@ -7353,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7367,7 +7418,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7393,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7413,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7439,7 +7490,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3.7</v>
       </c>
@@ -7465,7 +7516,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7.4</v>
       </c>
@@ -7491,7 +7542,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>11.1</v>
       </c>
@@ -7517,7 +7568,7 @@
         <v>1.7330000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14.7</v>
       </c>
@@ -7543,7 +7594,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>18.399999999999999</v>
       </c>
@@ -7569,7 +7620,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>22.1</v>
       </c>
@@ -7595,7 +7646,7 @@
         <v>1.736</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>25.8</v>
       </c>
@@ -7621,7 +7672,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>29.5</v>
       </c>
@@ -7647,7 +7698,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>33.200000000000003</v>
       </c>
@@ -7673,7 +7724,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>36.9</v>
       </c>
@@ -7699,7 +7750,7 @@
         <v>1.7290000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>40.5</v>
       </c>
@@ -7725,7 +7776,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>44.2</v>
       </c>
@@ -7751,7 +7802,7 @@
         <v>1.7170000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>47.9</v>
       </c>
@@ -7777,7 +7828,7 @@
         <v>1.7090000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>51.6</v>
       </c>
@@ -7803,7 +7854,7 @@
         <v>1.696</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>55.3</v>
       </c>
@@ -7829,7 +7880,7 @@
         <v>1.673</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>59</v>
       </c>
@@ -7855,7 +7906,7 @@
         <v>1.6379999999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>62.7</v>
       </c>
@@ -7881,7 +7932,7 @@
         <v>1.589</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>66.3</v>
       </c>
@@ -7907,7 +7958,7 @@
         <v>1.524</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>70</v>
       </c>
@@ -7933,7 +7984,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>73.7</v>
       </c>
@@ -7959,7 +8010,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>77.400000000000006</v>
       </c>
@@ -7985,7 +8036,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>81.099999999999994</v>
       </c>
@@ -8011,7 +8062,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>84.8</v>
       </c>
@@ -8037,7 +8088,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>88.5</v>
       </c>
@@ -8063,7 +8114,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>92.1</v>
       </c>
@@ -8089,7 +8140,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>95.8</v>
       </c>
@@ -8115,7 +8166,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>99.5</v>
       </c>
@@ -8141,7 +8192,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>103.2</v>
       </c>
@@ -8167,7 +8218,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>106.9</v>
       </c>
@@ -8193,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8207,7 +8258,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8233,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8279,7 +8330,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4.0999999999999996</v>
       </c>
@@ -8305,7 +8356,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>8.1</v>
       </c>
@@ -8331,7 +8382,7 @@
         <v>2.0920000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>12.2</v>
       </c>
@@ -8357,7 +8408,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>16.2</v>
       </c>
@@ -8383,7 +8434,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>20.3</v>
       </c>
@@ -8409,7 +8460,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>24.3</v>
       </c>
@@ -8435,7 +8486,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>28.4</v>
       </c>
@@ -8461,7 +8512,7 @@
         <v>2.097</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>32.4</v>
       </c>
@@ -8487,7 +8538,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>36.5</v>
       </c>
@@ -8513,7 +8564,7 @@
         <v>2.093</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>40.5</v>
       </c>
@@ -8539,7 +8590,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>44.6</v>
       </c>
@@ -8565,7 +8616,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>48.7</v>
       </c>
@@ -8591,7 +8642,7 @@
         <v>2.077</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>52.7</v>
       </c>
@@ -8617,7 +8668,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>56.8</v>
       </c>
@@ -8643,7 +8694,7 @@
         <v>2.0529999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>60.8</v>
       </c>
@@ -8669,7 +8720,7 @@
         <v>2.0259999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>64.900000000000006</v>
       </c>
@@ -8695,7 +8746,7 @@
         <v>1.9850000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>68.900000000000006</v>
       </c>
@@ -8721,7 +8772,7 @@
         <v>1.9279999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>73</v>
       </c>
@@ -8747,7 +8798,7 @@
         <v>1.851</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>77</v>
       </c>
@@ -8773,7 +8824,7 @@
         <v>1.7490000000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>81.099999999999994</v>
       </c>
@@ -8799,7 +8850,7 @@
         <v>1.6060000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>85.1</v>
       </c>
@@ -8825,7 +8876,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>89.2</v>
       </c>
@@ -8851,7 +8902,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>93.3</v>
       </c>
@@ -8877,7 +8928,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>97.3</v>
       </c>
@@ -8903,7 +8954,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>101.4</v>
       </c>
@@ -8929,7 +8980,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>105.4</v>
       </c>
@@ -8955,7 +9006,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>109.5</v>
       </c>
@@ -8981,7 +9032,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>113.5</v>
       </c>
@@ -9007,7 +9058,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>117.6</v>
       </c>
@@ -9033,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9047,7 +9098,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9073,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9093,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9119,7 +9170,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4.4000000000000004</v>
       </c>
@@ -9145,7 +9196,7 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8.8000000000000007</v>
       </c>
@@ -9171,7 +9222,7 @@
         <v>2.4870000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>13.3</v>
       </c>
@@ -9197,7 +9248,7 @@
         <v>2.4889999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17.7</v>
       </c>
@@ -9223,7 +9274,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>22.1</v>
       </c>
@@ -9249,7 +9300,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>26.5</v>
       </c>
@@ -9275,7 +9326,7 @@
         <v>2.4929999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>31</v>
       </c>
@@ -9301,7 +9352,7 @@
         <v>2.4929999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>35.4</v>
       </c>
@@ -9327,7 +9378,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>39.799999999999997</v>
       </c>
@@ -9353,7 +9404,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>44.2</v>
       </c>
@@ -9379,7 +9430,7 @@
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>48.7</v>
       </c>
@@ -9405,7 +9456,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>53.1</v>
       </c>
@@ -9431,7 +9482,7 @@
         <v>2.472</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>57.5</v>
       </c>
@@ -9457,7 +9508,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>61.9</v>
       </c>
@@ -9483,7 +9534,7 @@
         <v>2.4449999999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>66.400000000000006</v>
       </c>
@@ -9509,7 +9560,7 @@
         <v>2.415</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>70.8</v>
       </c>
@@ -9535,7 +9586,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>75.2</v>
       </c>
@@ -9561,7 +9612,7 @@
         <v>2.302</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>79.599999999999994</v>
       </c>
@@ -9587,7 +9638,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>84.1</v>
       </c>
@@ -9613,7 +9664,7 @@
         <v>2.0939999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>88.5</v>
       </c>
@@ -9639,7 +9690,7 @@
         <v>1.9259999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>92.9</v>
       </c>
@@ -9665,7 +9716,7 @@
         <v>1.7250000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>97.3</v>
       </c>
@@ -9691,7 +9742,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>101.8</v>
       </c>
@@ -9717,7 +9768,7 @@
         <v>1.3129999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>106.2</v>
       </c>
@@ -9743,7 +9794,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>110.6</v>
       </c>
@@ -9769,7 +9820,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>115</v>
       </c>
@@ -9795,7 +9846,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>119.4</v>
       </c>
@@ -9821,7 +9872,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>123.9</v>
       </c>
@@ -9847,7 +9898,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>128.30000000000001</v>
       </c>
@@ -9873,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9887,7 +9938,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9913,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9933,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9959,7 +10010,7 @@
         <v>2.9089999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.8</v>
       </c>
@@ -9985,7 +10036,7 @@
         <v>2.9119999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9.6</v>
       </c>
@@ -10011,7 +10062,7 @@
         <v>2.9140000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>14.4</v>
       </c>
@@ -10037,7 +10088,7 @@
         <v>2.9169999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>19.2</v>
       </c>
@@ -10063,7 +10114,7 @@
         <v>2.919</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>24</v>
       </c>
@@ -10089,7 +10140,7 @@
         <v>2.9209999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>28.8</v>
       </c>
@@ -10115,7 +10166,7 @@
         <v>2.923</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>33.6</v>
       </c>
@@ -10141,7 +10192,7 @@
         <v>2.923</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>38.4</v>
       </c>
@@ -10167,7 +10218,7 @@
         <v>2.9220000000000002</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>43.2</v>
       </c>
@@ -10193,7 +10244,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>48</v>
       </c>
@@ -10219,7 +10270,7 @@
         <v>2.9159999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>52.8</v>
       </c>
@@ -10245,7 +10296,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>57.6</v>
       </c>
@@ -10271,7 +10322,7 @@
         <v>2.9020000000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>62.4</v>
       </c>
@@ -10297,7 +10348,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>67.2</v>
       </c>
@@ -10323,7 +10374,7 @@
         <v>2.8730000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>72</v>
       </c>
@@ -10349,7 +10400,7 @@
         <v>2.8380000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>76.8</v>
       </c>
@@ -10375,7 +10426,7 @@
         <v>2.7839999999999998</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>81.599999999999994</v>
       </c>
@@ -10401,7 +10452,7 @@
         <v>2.7090000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>86.4</v>
       </c>
@@ -10427,7 +10478,7 @@
         <v>2.6070000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>91.2</v>
       </c>
@@ -10453,7 +10504,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>96</v>
       </c>
@@ -10479,7 +10530,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>100.8</v>
       </c>
@@ -10505,7 +10556,7 @@
         <v>2.0379999999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>105.6</v>
       </c>
@@ -10531,7 +10582,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>110.4</v>
       </c>
@@ -10557,7 +10608,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>115.2</v>
       </c>
@@ -10583,7 +10634,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>120</v>
       </c>
@@ -10609,7 +10660,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>124.8</v>
       </c>
@@ -10635,7 +10686,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>129.6</v>
       </c>
@@ -10661,7 +10712,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>134.4</v>
       </c>
@@ -10687,7 +10738,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>139.19999999999999</v>
       </c>
@@ -10713,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10727,7 +10778,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10753,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10773,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10799,7 +10850,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>5.2</v>
       </c>
@@ -10825,7 +10876,7 @@
         <v>3.3730000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>10.3</v>
       </c>
@@ -10851,7 +10902,7 @@
         <v>3.3769999999999998</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>15.5</v>
       </c>
@@ -10877,7 +10928,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>20.7</v>
       </c>
@@ -10903,7 +10954,7 @@
         <v>3.383</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>25.8</v>
       </c>
@@ -10929,7 +10980,7 @@
         <v>3.3849999999999998</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>31</v>
       </c>
@@ -10955,7 +11006,7 @@
         <v>3.3860000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>36.1</v>
       </c>
@@ -10981,7 +11032,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>41.3</v>
       </c>
@@ -11007,7 +11058,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>46.5</v>
       </c>
@@ -11033,7 +11084,7 @@
         <v>3.3849999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>51.6</v>
       </c>
@@ -11059,7 +11110,7 @@
         <v>3.3809999999999998</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>56.8</v>
       </c>
@@ -11085,7 +11136,7 @@
         <v>3.3759999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>62</v>
       </c>
@@ -11111,7 +11162,7 @@
         <v>3.367</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>67.099999999999994</v>
       </c>
@@ -11137,7 +11188,7 @@
         <v>3.3540000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>72.3</v>
       </c>
@@ -11163,7 +11214,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>77.400000000000006</v>
       </c>
@@ -11189,7 +11240,7 @@
         <v>3.2989999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>82.6</v>
       </c>
@@ -11215,7 +11266,7 @@
         <v>3.2389999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>87.8</v>
       </c>
@@ -11241,7 +11292,7 @@
         <v>3.157</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>92.9</v>
       </c>
@@ -11267,7 +11318,7 @@
         <v>3.0430000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>98.1</v>
       </c>
@@ -11293,7 +11344,7 @@
         <v>2.8889999999999998</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>103.3</v>
       </c>
@@ -11319,7 +11370,7 @@
         <v>2.6739999999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>108.4</v>
       </c>
@@ -11345,7 +11396,7 @@
         <v>2.395</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>113.6</v>
       </c>
@@ -11371,7 +11422,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>118.7</v>
       </c>
@@ -11397,7 +11448,7 @@
         <v>1.827</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>123.9</v>
       </c>
@@ -11423,7 +11474,7 @@
         <v>1.536</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>129.1</v>
       </c>
@@ -11449,7 +11500,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>134.19999999999999</v>
       </c>
@@ -11475,7 +11526,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>139.4</v>
       </c>
@@ -11501,7 +11552,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>144.6</v>
       </c>
@@ -11527,7 +11578,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>149.69999999999999</v>
       </c>
@@ -11553,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11567,7 +11618,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11593,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11613,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11639,7 +11690,7 @@
         <v>3.8650000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5.5</v>
       </c>
@@ -11665,7 +11716,7 @@
         <v>3.8690000000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>11.1</v>
       </c>
@@ -11691,7 +11742,7 @@
         <v>3.8719999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>16.600000000000001</v>
       </c>
@@ -11717,7 +11768,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>22.1</v>
       </c>
@@ -11743,7 +11794,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>27.6</v>
       </c>
@@ -11769,7 +11820,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>33.200000000000003</v>
       </c>
@@ -11795,7 +11846,7 @@
         <v>3.8849999999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>38.700000000000003</v>
       </c>
@@ -11821,7 +11872,7 @@
         <v>3.8860000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>44.2</v>
       </c>
@@ -11847,7 +11898,7 @@
         <v>3.887</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>49.8</v>
       </c>
@@ -11873,7 +11924,7 @@
         <v>3.8860000000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>55.3</v>
       </c>
@@ -11899,7 +11950,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>60.8</v>
       </c>
@@ -11925,7 +11976,7 @@
         <v>3.8769999999999998</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>66.3</v>
       </c>
@@ -11951,7 +12002,7 @@
         <v>3.8679999999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>71.900000000000006</v>
       </c>
@@ -11977,7 +12028,7 @@
         <v>3.859</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>77.400000000000006</v>
       </c>
@@ -12003,7 +12054,7 @@
         <v>3.843</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>82.9</v>
       </c>
@@ -12029,7 +12080,7 @@
         <v>3.806</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>88.5</v>
       </c>
@@ -12055,7 +12106,7 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>94</v>
       </c>
@@ -12081,7 +12132,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>99.5</v>
       </c>
@@ -12107,7 +12158,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>105</v>
       </c>
@@ -12133,7 +12184,7 @@
         <v>3.351</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>110.6</v>
       </c>
@@ -12159,7 +12210,7 @@
         <v>3.1110000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>116.1</v>
       </c>
@@ -12185,7 +12236,7 @@
         <v>2.7909999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>121.6</v>
       </c>
@@ -12211,7 +12262,7 @@
         <v>2.4630000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>127.2</v>
       </c>
@@ -12237,7 +12288,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>132.69999999999999</v>
       </c>
@@ -12263,7 +12314,7 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>138.19999999999999</v>
       </c>
@@ -12289,7 +12340,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>143.69999999999999</v>
       </c>
@@ -12315,7 +12366,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>149.30000000000001</v>
       </c>
@@ -12341,7 +12392,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>154.80000000000001</v>
       </c>
@@ -12367,7 +12418,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>160.30000000000001</v>
       </c>
@@ -12393,7 +12444,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12407,7 +12458,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12433,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12453,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12479,7 +12530,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5.9</v>
       </c>
@@ -12505,7 +12556,7 @@
         <v>4.4569999999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>11.8</v>
       </c>
@@ -12531,7 +12582,7 @@
         <v>4.4640000000000004</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>17.7</v>
       </c>
@@ -12557,7 +12608,7 @@
         <v>4.4720000000000004</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>23.5</v>
       </c>
@@ -12583,7 +12634,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>29.4</v>
       </c>
@@ -12609,7 +12660,7 @@
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>35.299999999999997</v>
       </c>
@@ -12635,7 +12686,7 @@
         <v>4.4939999999999998</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>41.2</v>
       </c>
@@ -12661,7 +12712,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>47.1</v>
       </c>
@@ -12687,7 +12738,7 @@
         <v>4.5039999999999996</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>53</v>
       </c>
@@ -12713,7 +12764,7 @@
         <v>4.5060000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>58.9</v>
       </c>
@@ -12739,7 +12790,7 @@
         <v>4.5039999999999996</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>64.8</v>
       </c>
@@ -12765,7 +12816,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>70.599999999999994</v>
       </c>
@@ -12791,7 +12842,7 @@
         <v>4.4889999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>76.5</v>
       </c>
@@ -12817,7 +12868,7 @@
         <v>4.4729999999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>82.4</v>
       </c>
@@ -12843,7 +12894,7 @@
         <v>4.4470000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>88.3</v>
       </c>
@@ -12869,7 +12920,7 @@
         <v>4.3979999999999997</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>94.2</v>
       </c>
@@ -12895,7 +12946,7 @@
         <v>4.319</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>100.1</v>
       </c>
@@ -12921,7 +12972,7 @@
         <v>4.2080000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>106</v>
       </c>
@@ -12947,7 +12998,7 @@
         <v>4.0650000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>111.9</v>
       </c>
@@ -12973,7 +13024,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>117.7</v>
       </c>
@@ -12999,7 +13050,7 @@
         <v>3.6030000000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>123.6</v>
       </c>
@@ -13025,7 +13076,7 @@
         <v>3.238</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>129.5</v>
       </c>
@@ -13051,7 +13102,7 @@
         <v>2.8610000000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>135.4</v>
       </c>
@@ -13077,7 +13128,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>141.30000000000001</v>
       </c>
@@ -13103,7 +13154,7 @@
         <v>2.0870000000000002</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>147.19999999999999</v>
       </c>
@@ -13129,7 +13180,7 @@
         <v>1.6850000000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>153.1</v>
       </c>
@@ -13155,7 +13206,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>159</v>
       </c>
@@ -13181,7 +13232,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>164.8</v>
       </c>
@@ -13207,7 +13258,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>170.7</v>
       </c>
@@ -13233,7 +13284,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13247,7 +13298,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13273,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13293,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13319,7 +13370,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>6.3</v>
       </c>
@@ -13345,7 +13396,7 @@
         <v>5.1360000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>12.5</v>
       </c>
@@ -13371,7 +13422,7 @@
         <v>5.149</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>18.8</v>
       </c>
@@ -13397,7 +13448,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>25</v>
       </c>
@@ -13423,7 +13474,7 @@
         <v>5.173</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>31.3</v>
       </c>
@@ -13449,7 +13500,7 @@
         <v>5.1829999999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>37.5</v>
       </c>
@@ -13475,7 +13526,7 @@
         <v>5.1920000000000002</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>43.8</v>
       </c>
@@ -13501,7 +13552,7 @@
         <v>5.1989999999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>50</v>
       </c>
@@ -13527,7 +13578,7 @@
         <v>5.2030000000000003</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>56.3</v>
       </c>
@@ -13553,7 +13604,7 @@
         <v>5.2030000000000003</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>62.5</v>
       </c>
@@ -13579,7 +13630,7 @@
         <v>5.1989999999999998</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>68.8</v>
       </c>
@@ -13605,7 +13656,7 @@
         <v>5.1890000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>75.099999999999994</v>
       </c>
@@ -13631,7 +13682,7 @@
         <v>5.1719999999999997</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>81.3</v>
       </c>
@@ -13657,7 +13708,7 @@
         <v>5.1459999999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>87.6</v>
       </c>
@@ -13683,7 +13734,7 @@
         <v>5.109</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>93.8</v>
       </c>
@@ -13709,7 +13760,7 @@
         <v>5.0469999999999997</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>100.1</v>
       </c>
@@ -13735,7 +13786,7 @@
         <v>4.9509999999999996</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>106.3</v>
       </c>
@@ -13761,7 +13812,7 @@
         <v>4.819</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>112.6</v>
       </c>
@@ -13787,7 +13838,7 @@
         <v>4.6539999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>118.8</v>
       </c>
@@ -13813,7 +13864,7 @@
         <v>4.4340000000000002</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>125.1</v>
       </c>
@@ -13839,7 +13890,7 @@
         <v>4.1349999999999998</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>131.30000000000001</v>
       </c>
@@ -13865,7 +13916,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>137.6</v>
       </c>
@@ -13891,7 +13942,7 @@
         <v>3.2869999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>143.80000000000001</v>
       </c>
@@ -13917,7 +13968,7 @@
         <v>2.847</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>150.1</v>
       </c>
@@ -13943,7 +13994,7 @@
         <v>2.3980000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>156.4</v>
       </c>
@@ -13969,7 +14020,7 @@
         <v>1.9259999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>162.6</v>
       </c>
@@ -13995,7 +14046,7 @@
         <v>1.4590000000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>168.9</v>
       </c>
@@ -14021,7 +14072,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>175.1</v>
       </c>
@@ -14047,7 +14098,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>181.4</v>
       </c>
@@ -14073,7 +14124,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14087,7 +14138,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14113,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14133,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14159,7 +14210,7 @@
         <v>5.8559999999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>6.6</v>
       </c>
@@ -14185,7 +14236,7 @@
         <v>5.8760000000000003</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>13.2</v>
       </c>
@@ -14211,7 +14262,7 @@
         <v>5.8949999999999996</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>19.8</v>
       </c>
@@ -14237,7 +14288,7 @@
         <v>5.9130000000000003</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>26.5</v>
       </c>
@@ -14263,7 +14314,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>33.1</v>
       </c>
@@ -14289,7 +14340,7 @@
         <v>5.9450000000000003</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>39.700000000000003</v>
       </c>
@@ -14315,7 +14366,7 @@
         <v>5.9569999999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>46.3</v>
       </c>
@@ -14341,7 +14392,7 @@
         <v>5.9660000000000002</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>52.9</v>
       </c>
@@ -14367,7 +14418,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>59.5</v>
       </c>
@@ -14393,7 +14444,7 @@
         <v>5.9690000000000003</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>66.099999999999994</v>
       </c>
@@ -14419,7 +14470,7 @@
         <v>5.9610000000000003</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>72.8</v>
       </c>
@@ -14445,7 +14496,7 @@
         <v>5.9450000000000003</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>79.400000000000006</v>
       </c>
@@ -14471,7 +14522,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>86</v>
       </c>
@@ -14497,7 +14548,7 @@
         <v>5.8840000000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>92.6</v>
       </c>
@@ -14523,7 +14574,7 @@
         <v>5.835</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>99.2</v>
       </c>
@@ -14549,7 +14600,7 @@
         <v>5.7560000000000002</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>105.8</v>
       </c>
@@ -14575,7 +14626,7 @@
         <v>5.6429999999999998</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>112.4</v>
       </c>
@@ -14601,7 +14652,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>119.1</v>
       </c>
@@ -14627,7 +14678,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>125.7</v>
       </c>
@@ -14653,7 +14704,7 @@
         <v>5.0579999999999998</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>132.30000000000001</v>
       </c>
@@ -14679,7 +14730,7 @@
         <v>4.7329999999999997</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>138.9</v>
       </c>
@@ -14705,7 +14756,7 @@
         <v>4.2759999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>145.5</v>
       </c>
@@ -14731,7 +14782,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>152.1</v>
       </c>
@@ -14757,7 +14808,7 @@
         <v>3.2629999999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>158.69999999999999</v>
       </c>
@@ -14783,7 +14834,7 @@
         <v>2.746</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>165.4</v>
       </c>
@@ -14809,7 +14860,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>172</v>
       </c>
@@ -14835,7 +14886,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>178.6</v>
       </c>
@@ -14861,7 +14912,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>185.2</v>
       </c>
@@ -14887,7 +14938,7 @@
         <v>0.58199999999999996</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>191.8</v>
       </c>
@@ -14913,7 +14964,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14927,7 +14978,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14953,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14973,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14999,7 +15050,7 @@
         <v>6.6550000000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>7</v>
       </c>
@@ -15025,7 +15076,7 @@
         <v>6.6840000000000002</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>13.9</v>
       </c>
@@ -15051,7 +15102,7 @@
         <v>6.7110000000000003</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>20.9</v>
       </c>
@@ -15077,7 +15128,7 @@
         <v>6.7359999999999998</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>27.9</v>
       </c>
@@ -15103,7 +15154,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>34.9</v>
       </c>
@@ -15129,7 +15180,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>41.8</v>
       </c>
@@ -15155,7 +15206,7 @@
         <v>6.7969999999999997</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>48.8</v>
       </c>
@@ -15181,7 +15232,7 @@
         <v>6.8090000000000002</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>55.8</v>
       </c>
@@ -15207,7 +15258,7 @@
         <v>6.8140000000000001</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>62.8</v>
       </c>
@@ -15233,7 +15284,7 @@
         <v>6.8129999999999997</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>69.7</v>
       </c>
@@ -15259,7 +15310,7 @@
         <v>6.8010000000000002</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>76.7</v>
       </c>
@@ -15285,7 +15336,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>83.7</v>
       </c>
@@ -15311,7 +15362,7 @@
         <v>6.7469999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>90.6</v>
       </c>
@@ -15337,7 +15388,7 @@
         <v>6.7009999999999996</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>97.6</v>
       </c>
@@ -15363,7 +15414,7 @@
         <v>6.6379999999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>104.6</v>
       </c>
@@ -15389,7 +15440,7 @@
         <v>6.5430000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>111.6</v>
       </c>
@@ -15415,7 +15466,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>118.5</v>
       </c>
@@ -15441,7 +15492,7 @@
         <v>6.2359999999999998</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>125.5</v>
       </c>
@@ -15467,7 +15518,7 @@
         <v>6.0170000000000003</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>132.5</v>
       </c>
@@ -15493,7 +15544,7 @@
         <v>5.7469999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>139.5</v>
       </c>
@@ -15519,7 +15570,7 @@
         <v>5.3949999999999996</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>146.4</v>
       </c>
@@ -15545,7 +15596,7 @@
         <v>4.8979999999999997</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>153.4</v>
       </c>
@@ -15571,7 +15622,7 @@
         <v>4.3220000000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>160.4</v>
       </c>
@@ -15597,7 +15648,7 @@
         <v>3.7450000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>167.4</v>
       </c>
@@ -15623,7 +15674,7 @@
         <v>3.161</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>174.3</v>
       </c>
@@ -15649,7 +15700,7 @@
         <v>2.5609999999999999</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>181.3</v>
       </c>
@@ -15675,7 +15726,7 @@
         <v>1.946</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>188.3</v>
       </c>
@@ -15701,7 +15752,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>195.2</v>
       </c>
@@ -15727,7 +15778,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>202.2</v>
       </c>
@@ -15753,7 +15804,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15767,7 +15818,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15793,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15813,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15839,7 +15890,7 @@
         <v>7.5419999999999998</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>7.3</v>
       </c>
@@ -15865,7 +15916,7 @@
         <v>7.5789999999999997</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>14.7</v>
       </c>
@@ -15891,7 +15942,7 @@
         <v>7.617</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>22</v>
       </c>
@@ -15917,7 +15968,7 @@
         <v>7.6539999999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>29.3</v>
       </c>
@@ -15943,7 +15994,7 @@
         <v>7.6859999999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>36.6</v>
       </c>
@@ -15969,7 +16020,7 @@
         <v>7.7160000000000002</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>44</v>
       </c>
@@ -15995,7 +16046,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>51.3</v>
       </c>
@@ -16021,7 +16072,7 @@
         <v>7.7560000000000002</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>58.6</v>
       </c>
@@ -16047,7 +16098,7 @@
         <v>7.7649999999999997</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>66</v>
       </c>
@@ -16073,7 +16124,7 @@
         <v>7.7649999999999997</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>73.3</v>
       </c>
@@ -16099,7 +16150,7 @@
         <v>7.7530000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>80.599999999999994</v>
       </c>
@@ -16125,7 +16176,7 @@
         <v>7.7290000000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>88</v>
       </c>
@@ -16151,7 +16202,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>95.3</v>
       </c>
@@ -16177,7 +16228,7 @@
         <v>7.6340000000000003</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>102.6</v>
       </c>
@@ -16203,7 +16254,7 @@
         <v>7.5590000000000002</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>109.9</v>
       </c>
@@ -16229,7 +16280,7 @@
         <v>7.4480000000000004</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>117.3</v>
       </c>
@@ -16255,7 +16306,7 @@
         <v>7.2949999999999999</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>124.6</v>
       </c>
@@ -16281,7 +16332,7 @@
         <v>7.0970000000000004</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>131.9</v>
       </c>
@@ -16307,7 +16358,7 @@
         <v>6.8490000000000002</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>139.30000000000001</v>
       </c>
@@ -16333,7 +16384,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>146.6</v>
       </c>
@@ -16359,7 +16410,7 @@
         <v>6.1660000000000004</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>153.9</v>
       </c>
@@ -16385,7 +16436,7 @@
         <v>5.6360000000000001</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>161.19999999999999</v>
       </c>
@@ -16411,7 +16462,7 @@
         <v>4.9610000000000003</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>168.6</v>
       </c>
@@ -16437,7 +16488,7 @@
         <v>4.3079999999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>175.9</v>
       </c>
@@ -16463,7 +16514,7 @@
         <v>3.6379999999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>183.2</v>
       </c>
@@ -16489,7 +16540,7 @@
         <v>2.9569999999999999</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>190.6</v>
       </c>
@@ -16515,7 +16566,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>197.9</v>
       </c>
@@ -16541,7 +16592,7 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>205.2</v>
       </c>
@@ -16567,7 +16618,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>212.6</v>
       </c>
@@ -16593,7 +16644,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16607,7 +16658,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16633,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16653,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16679,7 +16730,7 @@
         <v>8.6519999999999992</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>7.7</v>
       </c>
@@ -16705,7 +16756,7 @@
         <v>8.7059999999999995</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>15.3</v>
       </c>
@@ -16731,7 +16782,7 @@
         <v>8.7620000000000005</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>23</v>
       </c>
@@ -16757,7 +16808,7 @@
         <v>8.8209999999999997</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>30.7</v>
       </c>
@@ -16783,7 +16834,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>38.299999999999997</v>
       </c>
@@ -16809,7 +16860,7 @@
         <v>8.9429999999999996</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>46</v>
       </c>
@@ -16835,7 +16886,7 @@
         <v>9.01</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>53.7</v>
       </c>
@@ -16861,7 +16912,7 @@
         <v>9.0739999999999998</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>61.3</v>
       </c>
@@ -16887,7 +16938,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>69</v>
       </c>
@@ -16913,7 +16964,7 @@
         <v>9.2040000000000006</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>76.7</v>
       </c>
@@ -16939,7 +16990,7 @@
         <v>9.2240000000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>84.3</v>
       </c>
@@ -16965,7 +17016,7 @@
         <v>9.2439999999999998</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>92</v>
       </c>
@@ -16991,7 +17042,7 @@
         <v>9.2769999999999992</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>99.7</v>
       </c>
@@ -17017,7 +17068,7 @@
         <v>9.2010000000000005</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>107.3</v>
       </c>
@@ -17043,7 +17094,7 @@
         <v>9.0660000000000007</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>115</v>
       </c>
@@ -17069,7 +17120,7 @@
         <v>8.8889999999999993</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>122.7</v>
       </c>
@@ -17095,7 +17146,7 @@
         <v>8.6219999999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>130.30000000000001</v>
       </c>
@@ -17121,7 +17172,7 @@
         <v>8.3089999999999993</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>138</v>
       </c>
@@ -17147,7 +17198,7 @@
         <v>7.9569999999999999</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>145.69999999999999</v>
       </c>
@@ -17173,7 +17224,7 @@
         <v>7.6609999999999996</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>153.30000000000001</v>
       </c>
@@ -17199,7 +17250,7 @@
         <v>7.2789999999999999</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>161</v>
       </c>
@@ -17225,7 +17276,7 @@
         <v>6.7110000000000003</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>168.7</v>
       </c>
@@ -17251,7 +17302,7 @@
         <v>5.843</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>176.3</v>
       </c>
@@ -17277,7 +17328,7 @@
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>184</v>
       </c>
@@ -17303,7 +17354,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>191.7</v>
       </c>
@@ -17329,7 +17380,7 @@
         <v>3.476</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>199.3</v>
       </c>
@@ -17355,7 +17406,7 @@
         <v>2.6579999999999999</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>207</v>
       </c>
@@ -17381,7 +17432,7 @@
         <v>1.8069999999999999</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>214.7</v>
       </c>
@@ -17407,7 +17458,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>222.3</v>
       </c>
@@ -17433,7 +17484,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17447,7 +17498,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17473,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17493,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17519,7 +17570,7 @@
         <v>11.638</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>9.5</v>
       </c>
@@ -17545,7 +17596,7 @@
         <v>11.741</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>19</v>
       </c>
@@ -17571,7 +17622,7 @@
         <v>11.808</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>28.6</v>
       </c>
@@ -17597,7 +17648,7 @@
         <v>11.974</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>38.1</v>
       </c>
@@ -17623,7 +17674,7 @@
         <v>12.175000000000001</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>47.6</v>
       </c>
@@ -17649,7 +17700,7 @@
         <v>12.182</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>57.1</v>
       </c>
@@ -17675,7 +17726,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>66.599999999999994</v>
       </c>
@@ -17701,7 +17752,7 @@
         <v>12.398999999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>76.2</v>
       </c>
@@ -17727,7 +17778,7 @@
         <v>12.504</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>85.7</v>
       </c>
@@ -17753,7 +17804,7 @@
         <v>12.975</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>95.2</v>
       </c>
@@ -17779,7 +17830,7 @@
         <v>13.317</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>104.7</v>
       </c>
@@ -17805,7 +17856,7 @@
         <v>13.237</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>114.2</v>
       </c>
@@ -17831,7 +17882,7 @@
         <v>12.929</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>123.8</v>
       </c>
@@ -17857,7 +17908,7 @@
         <v>12.595000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>133.30000000000001</v>
       </c>
@@ -17883,7 +17934,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>142.80000000000001</v>
       </c>
@@ -17909,63 +17960,59 @@
         <v>11.706</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>152.30000000000001</v>
       </c>
-      <c r="B774" t="s">
-        <v>46</v>
-      </c>
-      <c r="C774" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D774" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E774" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F774" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G774" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="775" spans="1:8">
+      <c r="B774">
+        <v>0.76</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774">
+        <v>0</v>
+      </c>
+      <c r="F774">
+        <v>0</v>
+      </c>
+      <c r="G774">
+        <v>0</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>161.80000000000001</v>
       </c>
-      <c r="B775" t="s">
-        <v>47</v>
-      </c>
-      <c r="C775" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D775" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E775" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F775" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G775" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="776" spans="1:8">
+      <c r="B775">
+        <v>0.81</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+      <c r="F775">
+        <v>0</v>
+      </c>
+      <c r="G775">
+        <v>0</v>
+      </c>
+      <c r="H775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>171.4</v>
       </c>
@@ -17991,7 +18038,7 @@
         <v>10.635999999999999</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>180.9</v>
       </c>
@@ -18017,7 +18064,7 @@
         <v>10.087</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>190.4</v>
       </c>
@@ -18043,7 +18090,7 @@
         <v>9.4179999999999993</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>199.9</v>
       </c>
@@ -18069,7 +18116,7 @@
         <v>8.3759999999999994</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>209.4</v>
       </c>
@@ -18095,35 +18142,33 @@
         <v>7.4379999999999997</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>219</v>
       </c>
-      <c r="B781" t="s">
-        <v>48</v>
-      </c>
-      <c r="C781" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D781" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E781" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F781" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G781" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="782" spans="1:8">
+      <c r="B781">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>0</v>
+      </c>
+      <c r="E781">
+        <v>0</v>
+      </c>
+      <c r="F781">
+        <v>0</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>228.5</v>
       </c>
@@ -18149,7 +18194,7 @@
         <v>4.8339999999999996</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>238</v>
       </c>
@@ -18175,7 +18220,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>247.5</v>
       </c>
@@ -18201,7 +18246,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>257</v>
       </c>
@@ -18227,7 +18272,7 @@
         <v>2.6059999999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>266.60000000000002</v>
       </c>
@@ -18253,32 +18298,30 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>276.10000000000002</v>
       </c>
-      <c r="B787" t="s">
-        <v>49</v>
-      </c>
-      <c r="C787" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D787" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E787" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F787" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G787" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
+      <c r="B787">
+        <v>1.39</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787">
+        <v>0</v>
+      </c>
+      <c r="F787">
+        <v>0</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18288,24 +18331,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
